--- a/data/trans_dic/Predimed_R3-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Dificultad-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.085647418966036</v>
+        <v>0.08564741896603603</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.135874937328804</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06153098962379848</v>
+        <v>0.06188017313253333</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1125068335566887</v>
+        <v>0.1136136008111716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0969856187283638</v>
+        <v>0.09744173969553858</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1144419968719753</v>
+        <v>0.1150941899978217</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1621905106302907</v>
+        <v>0.1615492879638665</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1321254597986868</v>
+        <v>0.134374707552067</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1117536798488517</v>
+        <v>0.1099544155554405</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1160413052242879</v>
+        <v>0.1151502591698244</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1186273379704194</v>
+        <v>0.1185512582972685</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1619905152373587</v>
+        <v>0.159108672863805</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1490981289209073</v>
+        <v>0.148905798993326</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1482930215441492</v>
+        <v>0.1481597451168607</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1282008056143395</v>
+        <v>0.1280937054154491</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1454105612675803</v>
+        <v>0.1448075361978497</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1426357454936862</v>
+        <v>0.142513859401203</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1811810213871299</v>
+        <v>0.179828235918738</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1867668598883488</v>
+        <v>0.1877058186034218</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1742381963263891</v>
+        <v>0.1748653093980309</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.2804334740881347</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3138215805011019</v>
+        <v>0.313821580501102</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.296530609623435</v>
+        <v>0.2965306096234349</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2517989872740471</v>
+        <v>0.2487684163355711</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2852751934601452</v>
+        <v>0.2874102950943831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2761557799521145</v>
+        <v>0.2758620958886387</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3142217614127795</v>
+        <v>0.3178796918735167</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.342296736486023</v>
+        <v>0.3409763905645086</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3196880025559652</v>
+        <v>0.319476961353451</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1746616233636141</v>
+        <v>0.1746616233636142</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1872858023356657</v>
+        <v>0.1872858023356658</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1811904047957399</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1602446625277365</v>
+        <v>0.161147650646988</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1762479247205636</v>
+        <v>0.175756873430224</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1723856346607406</v>
+        <v>0.1725545124624085</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1891176915053122</v>
+        <v>0.1895551261446244</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1995168331156155</v>
+        <v>0.19844650415918</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1913369225166554</v>
+        <v>0.1925020871314199</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27560</v>
+        <v>27716</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>64891</v>
+        <v>65529</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>99379</v>
+        <v>99847</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51259</v>
+        <v>51551</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>93547</v>
+        <v>93177</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>135386</v>
+        <v>137691</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>98411</v>
+        <v>96826</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>120158</v>
+        <v>119235</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>227299</v>
+        <v>227154</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>142649</v>
+        <v>140112</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>154387</v>
+        <v>154188</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>284141</v>
+        <v>283886</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>127389</v>
+        <v>127283</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>146175</v>
+        <v>145568</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>285118</v>
+        <v>284875</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>180034</v>
+        <v>178690</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>187748</v>
+        <v>188692</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>348289</v>
+        <v>349543</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>233962</v>
+        <v>231146</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>246766</v>
+        <v>248612</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>495471</v>
+        <v>494944</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>291963</v>
+        <v>295362</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>296090</v>
+        <v>294948</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>573575</v>
+        <v>573197</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>521010</v>
+        <v>523946</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>613786</v>
+        <v>612076</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1160820</v>
+        <v>1161957</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>614886</v>
+        <v>616309</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>694820</v>
+        <v>691093</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1288435</v>
+        <v>1296281</v>
       </c>
     </row>
     <row r="24">
